--- a/04-Testing/Results/Raw Proof of Concept Test 13 Apr 2020 tests 2-5.xlsx
+++ b/04-Testing/Results/Raw Proof of Concept Test 13 Apr 2020 tests 2-5.xlsx
@@ -1,21 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Reusable-N95-Project/04-Testing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CBA9BB-AE57-A548-A836-488DD3888CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 13 2020 test2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FA194C4C-A9D0-CF43-B525-47F30BAB3B27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NIH, 2 Ply 5N11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{586208DD-CBCF-BA42-930E-D188929E661E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Halyard H400 2 Ply</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{18260F61-BB39-6045-9B84-A319B78C0DF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roxon RX1568 solo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{10E234D2-C9ED-614D-AB5A-73AFD9AA18B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Woodbridge 5 Ply</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,8 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +359,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -890,26 +1046,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="3" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="12" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="24.77734375" customWidth="1"/>
-    <col min="15" max="20" width="12.77734375" customWidth="1"/>
-    <col min="22" max="22" width="24.77734375" customWidth="1"/>
-    <col min="23" max="28" width="12.77734375" customWidth="1"/>
+    <col min="6" max="12" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" customWidth="1"/>
+    <col min="15" max="20" width="12.83203125" customWidth="1"/>
+    <col min="22" max="22" width="24.83203125" customWidth="1"/>
+    <col min="23" max="28" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1063,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1296,7 @@
         <v>0.59592592592592586</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10.4</v>
       </c>
@@ -1231,7 +1387,7 @@
         <v>8.1867000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11.1</v>
       </c>
@@ -1308,7 +1464,7 @@
         <v>22.702000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
@@ -1385,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12.9</v>
       </c>
@@ -1462,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13.8</v>
       </c>
@@ -1539,7 +1695,7 @@
         <v>5.9984000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14.9</v>
       </c>
@@ -1616,7 +1772,7 @@
         <v>38.982999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>16</v>
       </c>
@@ -1693,7 +1849,7 @@
         <v>25.831</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>17.2</v>
       </c>
@@ -1770,7 +1926,7 @@
         <v>48.042000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>18.399999999999999</v>
       </c>
@@ -1847,7 +2003,7 @@
         <v>62.616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>19.8</v>
       </c>
@@ -1924,7 +2080,7 @@
         <v>52.465000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21.3</v>
       </c>
@@ -2001,7 +2157,7 @@
         <v>65.781000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22.9</v>
       </c>
@@ -2078,7 +2234,7 @@
         <v>71.382000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24.6</v>
       </c>
@@ -2155,7 +2311,7 @@
         <v>60.804000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>26.4</v>
       </c>
@@ -2232,7 +2388,7 @@
         <v>84.822000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28.4</v>
       </c>
@@ -2309,7 +2465,7 @@
         <v>84.727999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>30.5</v>
       </c>
@@ -2386,7 +2542,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>32.799999999999997</v>
       </c>
@@ -2463,7 +2619,7 @@
         <v>114.83</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>35.200000000000003</v>
       </c>
@@ -2540,7 +2696,7 @@
         <v>89.049000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>37.9</v>
       </c>
@@ -2617,7 +2773,7 @@
         <v>77.950999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>40.700000000000003</v>
       </c>
@@ -2694,7 +2850,7 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>43.7</v>
       </c>
@@ -2771,7 +2927,7 @@
         <v>135.94999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>47</v>
       </c>
@@ -2848,7 +3004,7 @@
         <v>135.97999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50.5</v>
       </c>
@@ -2925,7 +3081,7 @@
         <v>148.1</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>54.2</v>
       </c>
@@ -3002,7 +3158,7 @@
         <v>186.31</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>58.3</v>
       </c>
@@ -3079,7 +3235,7 @@
         <v>147.99</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>62.6</v>
       </c>
@@ -3156,7 +3312,7 @@
         <v>146.12</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>67.3</v>
       </c>
@@ -3233,7 +3389,7 @@
         <v>226.54</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>72.3</v>
       </c>
@@ -3310,7 +3466,7 @@
         <v>185.75</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>77.7</v>
       </c>
@@ -3387,7 +3543,7 @@
         <v>199.86</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>83.5</v>
       </c>
@@ -3464,7 +3620,7 @@
         <v>219.04</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>89.8</v>
       </c>
@@ -3541,7 +3697,7 @@
         <v>260.20999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>96.5</v>
       </c>
@@ -3618,7 +3774,7 @@
         <v>214.99</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>103.7</v>
       </c>
@@ -3695,7 +3851,7 @@
         <v>247.64</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>111.4</v>
       </c>
@@ -3772,7 +3928,7 @@
         <v>193.27</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>119.7</v>
       </c>
@@ -3849,7 +4005,7 @@
         <v>190.17</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>128.6</v>
       </c>
@@ -3926,7 +4082,7 @@
         <v>185.99</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>138.19999999999999</v>
       </c>
@@ -4003,7 +4159,7 @@
         <v>161.27000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>148.6</v>
       </c>
@@ -4080,7 +4236,7 @@
         <v>138.43</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>159.6</v>
       </c>
@@ -4157,7 +4313,7 @@
         <v>114.11</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>171.5</v>
       </c>
@@ -4234,7 +4390,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>184.3</v>
       </c>
@@ -4311,7 +4467,7 @@
         <v>91.241</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>198.1</v>
       </c>
@@ -4388,7 +4544,7 @@
         <v>95.671000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>212.9</v>
       </c>
@@ -4465,7 +4621,7 @@
         <v>57.570999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>228.8</v>
       </c>
@@ -4542,7 +4698,7 @@
         <v>37.145000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>245.8</v>
       </c>
@@ -4619,7 +4775,7 @@
         <v>50.189</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>264.2</v>
       </c>
@@ -4696,7 +4852,7 @@
         <v>22.283000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>283.89999999999998</v>
       </c>
@@ -4773,7 +4929,7 @@
         <v>7.7245999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>305.10000000000002</v>
       </c>
@@ -4850,7 +5006,7 @@
         <v>24.702000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>327.8</v>
       </c>
@@ -4927,7 +5083,7 @@
         <v>22.501000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>352.3</v>
       </c>
@@ -5004,7 +5160,7 @@
         <v>26.861000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>378.6</v>
       </c>
@@ -5081,7 +5237,7 @@
         <v>21.475000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>406.8</v>
       </c>
@@ -5158,7 +5314,7 @@
         <v>13.058999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>437.1</v>
       </c>
@@ -5235,7 +5391,7 @@
         <v>15.967000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>469.8</v>
       </c>
@@ -5312,7 +5468,7 @@
         <v>18.864999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -5389,7 +5545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -5466,7 +5622,7 @@
         <v>486.97</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -5543,7 +5699,7 @@
         <v>4.8240699999999998E+228</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -5557,7 +5713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -5634,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
@@ -5711,7 +5867,7 @@
         <v>79.308700000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -5788,7 +5944,7 @@
         <v>94.6755</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5865,7 +6021,7 @@
         <v>73.891499999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -5942,7 +6098,7 @@
         <v>89.768699999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -6019,7 +6175,7 @@
         <v>2.0571899999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>16</v>
       </c>
@@ -6096,7 +6252,7 @@
         <v>162.923</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -6110,7 +6266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -6189,5 +6345,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>